--- a/C# Day5/Quiz-Teams.xlsx
+++ b/C# Day5/Quiz-Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Batch911\C# Day5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E8AF826-D4F6-49FB-894F-A88E9CD7F5E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41675D0-BFF0-41DC-814C-2DB4D30070BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67DB4289-E898-428F-8000-F5A69D478CF5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Abhishek Jain</t>
   </si>
@@ -220,6 +220,27 @@
   </si>
   <si>
     <t xml:space="preserve">Teams </t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Team 5</t>
+  </si>
+  <si>
+    <t>Team 6</t>
+  </si>
+  <si>
+    <t>Team 7</t>
   </si>
 </sst>
 </file>
@@ -248,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -312,25 +333,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE1799-AAE4-4C5D-ABC6-D7637E07919B}">
-  <dimension ref="B2:O43"/>
+  <dimension ref="A2:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +708,7 @@
     <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>41</v>
       </c>
@@ -667,27 +716,34 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -697,11 +753,15 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,20 +771,24 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7">
         <v>1.5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -734,9 +798,12 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -746,20 +813,24 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -769,11 +840,12 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -783,9 +855,12 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -795,11 +870,12 @@
       <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -809,20 +885,24 @@
       <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -832,13 +912,13 @@
       <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -852,7 +932,7 @@
       <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
@@ -864,7 +944,7 @@
       <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="2"/>
@@ -881,7 +961,7 @@
       <c r="D20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="6"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -896,7 +976,7 @@
       <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>45</v>
       </c>
       <c r="I21" s="2"/>
@@ -913,7 +993,7 @@
       <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -932,7 +1012,7 @@
       <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -946,7 +1026,7 @@
       <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
@@ -958,7 +1038,7 @@
       <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -972,7 +1052,7 @@
       <c r="D26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
@@ -984,7 +1064,7 @@
       <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -998,7 +1078,7 @@
       <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
@@ -1010,7 +1090,7 @@
       <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1024,7 +1104,7 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
@@ -1036,7 +1116,7 @@
       <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1050,7 +1130,7 @@
       <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
@@ -1062,7 +1142,7 @@
       <c r="D33" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1070,7 +1150,7 @@
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
@@ -1082,7 +1162,7 @@
       <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1096,7 +1176,7 @@
       <c r="D36" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
@@ -1108,7 +1188,7 @@
       <c r="D37" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1122,7 +1202,7 @@
       <c r="D38" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
@@ -1134,7 +1214,7 @@
       <c r="D39" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1148,7 +1228,7 @@
       <c r="D40" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
@@ -1160,7 +1240,7 @@
       <c r="D41" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1174,7 +1254,7 @@
       <c r="D42" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
@@ -1186,12 +1266,31 @@
       <c r="D43" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="27">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E27:E28"/>
@@ -1200,18 +1299,6 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
